--- a/NIDA_Expts/Experiments/Specific_CI_Counterbalancing.xlsx
+++ b/NIDA_Expts/Experiments/Specific_CI_Counterbalancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panayimc\Documents\GitHub\Marios-temp\NIDA_Expts\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34B59FEC-8398-4647-843E-49CE3BEEF508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7CF1C9-DC95-47A0-BF83-07E5AEE31B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17A9EBBA-1780-4830-99B1-A1DFA4F67928}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="50">
   <si>
     <t>AX</t>
   </si>
@@ -113,9 +113,6 @@
     <t>DY</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Counterbalancing</t>
   </si>
   <si>
@@ -138,6 +135,54 @@
   </si>
   <si>
     <t>FeatureNegative</t>
+  </si>
+  <si>
+    <t>Stage4</t>
+  </si>
+  <si>
+    <t>SummationTest</t>
+  </si>
+  <si>
+    <t>Tone_Flash</t>
+  </si>
+  <si>
+    <t>Siren_Flash</t>
+  </si>
+  <si>
+    <t>Tone_Steady</t>
+  </si>
+  <si>
+    <t>Siren_Steady</t>
+  </si>
+  <si>
+    <t>CX_</t>
+  </si>
+  <si>
+    <t>DX_</t>
+  </si>
+  <si>
+    <t>CY_</t>
+  </si>
+  <si>
+    <t>DY_</t>
+  </si>
+  <si>
+    <t>Summation</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Probe</t>
+  </si>
+  <si>
+    <t>TrialNumber_Probes</t>
+  </si>
+  <si>
+    <t>TrialNumber_CS</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -489,58 +534,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8582698C-F4C1-4540-8539-EFDDA2B776FC}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -559,8 +631,29 @@
       <c r="H4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -579,8 +672,29 @@
       <c r="H5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -599,8 +713,29 @@
       <c r="H6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -619,8 +754,29 @@
       <c r="H7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -639,8 +795,29 @@
       <c r="H8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -659,8 +836,29 @@
       <c r="H9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -679,8 +877,29 @@
       <c r="H10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -699,8 +918,29 @@
       <c r="H11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -719,8 +959,29 @@
       <c r="H12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -739,8 +1000,29 @@
       <c r="H13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -759,8 +1041,29 @@
       <c r="H14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -779,8 +1082,29 @@
       <c r="H15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -799,8 +1123,29 @@
       <c r="H16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -819,8 +1164,29 @@
       <c r="H17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17">
+        <v>14</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -839,8 +1205,29 @@
       <c r="H18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -859,8 +1246,29 @@
       <c r="H19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>12</v>
       </c>
@@ -870,8 +1278,29 @@
       <c r="H20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20">
+        <v>17</v>
+      </c>
+      <c r="P20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>13</v>
       </c>
@@ -881,8 +1310,29 @@
       <c r="H21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21">
+        <v>18</v>
+      </c>
+      <c r="P21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>7</v>
       </c>
@@ -892,8 +1342,29 @@
       <c r="H22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22">
+        <v>19</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>8</v>
       </c>
@@ -903,8 +1374,29 @@
       <c r="H23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>10</v>
       </c>
@@ -914,8 +1406,29 @@
       <c r="H24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24">
+        <v>21</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>9</v>
       </c>
@@ -925,8 +1438,29 @@
       <c r="H25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25">
+        <v>22</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
         <v>12</v>
       </c>
@@ -936,8 +1470,29 @@
       <c r="H26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26">
+        <v>23</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
         <v>13</v>
       </c>
@@ -947,8 +1502,29 @@
       <c r="H27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27">
+        <v>24</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
         <v>8</v>
       </c>
@@ -958,8 +1534,29 @@
       <c r="H28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28">
+        <v>25</v>
+      </c>
+      <c r="P28" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
         <v>7</v>
       </c>
@@ -969,8 +1566,29 @@
       <c r="H29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>9</v>
       </c>
@@ -980,8 +1598,29 @@
       <c r="H30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30">
+        <v>27</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1630,29 @@
       <c r="H31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31">
+        <v>28</v>
+      </c>
+      <c r="P31">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>13</v>
       </c>
@@ -1002,8 +1662,29 @@
       <c r="H32" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32">
+        <v>29</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
         <v>12</v>
       </c>
@@ -1013,8 +1694,29 @@
       <c r="H33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33">
+        <v>30</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
         <v>8</v>
       </c>
@@ -1024,8 +1726,29 @@
       <c r="H34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34">
+        <v>31</v>
+      </c>
+      <c r="P34">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
         <v>7</v>
       </c>
@@ -1035,8 +1758,29 @@
       <c r="H35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O35">
+        <v>32</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1790,17 @@
       <c r="H36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1810,17 @@
       <c r="H37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
         <v>13</v>
       </c>
@@ -1068,8 +1830,17 @@
       <c r="H38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
         <v>12</v>
       </c>
@@ -1079,8 +1850,17 @@
       <c r="H39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
         <v>8</v>
       </c>
@@ -1090,8 +1870,17 @@
       <c r="H40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
         <v>7</v>
       </c>
@@ -1101,8 +1890,17 @@
       <c r="H41" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
         <v>10</v>
       </c>
@@ -1112,8 +1910,17 @@
       <c r="H42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
         <v>9</v>
       </c>
@@ -1123,8 +1930,17 @@
       <c r="H43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
         <v>13</v>
       </c>
@@ -1134,8 +1950,17 @@
       <c r="H44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
         <v>12</v>
       </c>
@@ -1145,8 +1970,17 @@
       <c r="H45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
         <v>8</v>
       </c>
@@ -1156,8 +1990,17 @@
       <c r="H46" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
         <v>7</v>
       </c>
@@ -1167,8 +2010,17 @@
       <c r="H47" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J47" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F48" t="s">
         <v>10</v>
       </c>
@@ -1178,8 +2030,17 @@
       <c r="H48" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
         <v>9</v>
       </c>
@@ -1189,8 +2050,17 @@
       <c r="H49" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
         <v>13</v>
       </c>
@@ -1200,8 +2070,17 @@
       <c r="H50" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="J50" t="s">
+        <v>42</v>
+      </c>
+      <c r="K50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
         <v>12</v>
       </c>
@@ -1209,7 +2088,368 @@
         <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="J51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" t="s">
+        <v>37</v>
+      </c>
+      <c r="L51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="J53" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" t="s">
+        <v>39</v>
+      </c>
+      <c r="L53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="J55" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="J56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" t="s">
+        <v>3</v>
+      </c>
+      <c r="L56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="J57" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="J58" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="J59" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="J60" t="s">
+        <v>40</v>
+      </c>
+      <c r="K60" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="J61" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" t="s">
+        <v>37</v>
+      </c>
+      <c r="L61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62" t="s">
+        <v>38</v>
+      </c>
+      <c r="L62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="J63" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" t="s">
+        <v>39</v>
+      </c>
+      <c r="L63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>7</v>
+      </c>
+      <c r="K65" t="s">
+        <v>2</v>
+      </c>
+      <c r="L65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J66" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J67" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" t="s">
+        <v>4</v>
+      </c>
+      <c r="L67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J68" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" t="s">
+        <v>5</v>
+      </c>
+      <c r="L68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J69" t="s">
+        <v>12</v>
+      </c>
+      <c r="K69" t="s">
+        <v>6</v>
+      </c>
+      <c r="L69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J70" t="s">
+        <v>43</v>
+      </c>
+      <c r="K70" t="s">
+        <v>36</v>
+      </c>
+      <c r="L70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>42</v>
+      </c>
+      <c r="K71" t="s">
+        <v>37</v>
+      </c>
+      <c r="L71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J72" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J73" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" t="s">
+        <v>39</v>
+      </c>
+      <c r="L73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J74" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J75" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" t="s">
+        <v>2</v>
+      </c>
+      <c r="L75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J76" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J77" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77" t="s">
+        <v>4</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J79" t="s">
+        <v>12</v>
+      </c>
+      <c r="K79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J80" t="s">
+        <v>41</v>
+      </c>
+      <c r="K80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J81" t="s">
+        <v>40</v>
+      </c>
+      <c r="K81" t="s">
+        <v>37</v>
+      </c>
+      <c r="L81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J82" t="s">
+        <v>43</v>
+      </c>
+      <c r="K82" t="s">
+        <v>38</v>
+      </c>
+      <c r="L82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J83" t="s">
+        <v>42</v>
+      </c>
+      <c r="K83" t="s">
+        <v>39</v>
+      </c>
+      <c r="L83" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/NIDA_Expts/Experiments/Specific_CI_Counterbalancing.xlsx
+++ b/NIDA_Expts/Experiments/Specific_CI_Counterbalancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panayimc\Documents\GitHub\Marios-temp\NIDA_Expts\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7CF1C9-DC95-47A0-BF83-07E5AEE31B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716514B9-A81D-484D-9B7E-DDBBE2F62B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17A9EBBA-1780-4830-99B1-A1DFA4F67928}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="66">
   <si>
     <t>AX</t>
   </si>
@@ -183,6 +183,54 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Flash_Banana</t>
+  </si>
+  <si>
+    <t>Steady_Chocolate</t>
+  </si>
+  <si>
+    <t>Flash_Chocolate</t>
+  </si>
+  <si>
+    <t>Steady_Banana</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X_O1</t>
+  </si>
+  <si>
+    <t>Y_O1</t>
+  </si>
+  <si>
+    <t>X_O2</t>
+  </si>
+  <si>
+    <t>Y_O2</t>
+  </si>
+  <si>
+    <t>Stage5 -Retardation</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>Steady</t>
   </si>
 </sst>
 </file>
@@ -534,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8582698C-F4C1-4540-8539-EFDDA2B776FC}">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O35"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,14 +595,15 @@
     <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -576,8 +625,11 @@
       <c r="P2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -611,8 +663,32 @@
       <c r="Q3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -652,8 +728,32 @@
       <c r="Q4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -693,8 +793,32 @@
       <c r="Q5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -734,8 +858,32 @@
       <c r="Q6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -775,8 +923,32 @@
       <c r="Q7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" t="s">
+        <v>58</v>
+      </c>
+      <c r="W7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -816,8 +988,32 @@
       <c r="Q8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -857,8 +1053,32 @@
       <c r="Q9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -898,8 +1118,32 @@
       <c r="Q10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -939,8 +1183,32 @@
       <c r="Q11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -980,8 +1248,32 @@
       <c r="Q12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1021,8 +1313,32 @@
       <c r="Q13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1062,8 +1378,32 @@
       <c r="Q14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" t="s">
+        <v>61</v>
+      </c>
+      <c r="V14" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1443,32 @@
       <c r="Q15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1144,8 +1508,32 @@
       <c r="Q16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" t="s">
+        <v>58</v>
+      </c>
+      <c r="W16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1185,8 +1573,32 @@
       <c r="Q17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S17" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1226,8 +1638,32 @@
       <c r="Q18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" t="s">
+        <v>52</v>
+      </c>
+      <c r="U18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" t="s">
+        <v>58</v>
+      </c>
+      <c r="W18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1267,8 +1703,32 @@
       <c r="Q19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S19" t="s">
+        <v>11</v>
+      </c>
+      <c r="T19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U19" t="s">
+        <v>61</v>
+      </c>
+      <c r="V19" t="s">
+        <v>57</v>
+      </c>
+      <c r="W19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>12</v>
       </c>
@@ -1299,8 +1759,23 @@
       <c r="Q20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>57</v>
+      </c>
+      <c r="W20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>13</v>
       </c>
@@ -1331,8 +1806,23 @@
       <c r="Q21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U21" t="s">
+        <v>60</v>
+      </c>
+      <c r="V21" t="s">
+        <v>58</v>
+      </c>
+      <c r="W21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>7</v>
       </c>
@@ -1363,8 +1853,23 @@
       <c r="Q22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S22" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" t="s">
+        <v>61</v>
+      </c>
+      <c r="V22" t="s">
+        <v>57</v>
+      </c>
+      <c r="W22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>8</v>
       </c>
@@ -1395,8 +1900,23 @@
       <c r="Q23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S23" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" t="s">
+        <v>62</v>
+      </c>
+      <c r="V23" t="s">
+        <v>58</v>
+      </c>
+      <c r="W23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>10</v>
       </c>
@@ -1427,8 +1947,23 @@
       <c r="Q24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" t="s">
+        <v>58</v>
+      </c>
+      <c r="W24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>9</v>
       </c>
@@ -1459,8 +1994,23 @@
       <c r="Q25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S25" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" t="s">
+        <v>53</v>
+      </c>
+      <c r="U25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>57</v>
+      </c>
+      <c r="W25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
         <v>12</v>
       </c>
@@ -1491,8 +2041,23 @@
       <c r="Q26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26" t="s">
+        <v>58</v>
+      </c>
+      <c r="W26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
         <v>13</v>
       </c>
@@ -1523,8 +2088,23 @@
       <c r="Q27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S27" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" t="s">
+        <v>51</v>
+      </c>
+      <c r="U27" t="s">
+        <v>61</v>
+      </c>
+      <c r="V27" t="s">
+        <v>57</v>
+      </c>
+      <c r="W27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
         <v>8</v>
       </c>
@@ -1555,8 +2135,23 @@
       <c r="Q28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S28" t="s">
+        <v>24</v>
+      </c>
+      <c r="T28" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" t="s">
+        <v>57</v>
+      </c>
+      <c r="W28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
         <v>7</v>
       </c>
@@ -1587,8 +2182,23 @@
       <c r="Q29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S29" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" t="s">
+        <v>53</v>
+      </c>
+      <c r="U29" t="s">
+        <v>60</v>
+      </c>
+      <c r="V29" t="s">
+        <v>58</v>
+      </c>
+      <c r="W29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>9</v>
       </c>
@@ -1619,8 +2229,23 @@
       <c r="Q30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S30" t="s">
+        <v>24</v>
+      </c>
+      <c r="T30" t="s">
+        <v>52</v>
+      </c>
+      <c r="U30" t="s">
+        <v>61</v>
+      </c>
+      <c r="V30" t="s">
+        <v>57</v>
+      </c>
+      <c r="W30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>10</v>
       </c>
@@ -1651,8 +2276,23 @@
       <c r="Q31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S31" t="s">
+        <v>24</v>
+      </c>
+      <c r="T31" t="s">
+        <v>51</v>
+      </c>
+      <c r="U31" t="s">
+        <v>62</v>
+      </c>
+      <c r="V31" t="s">
+        <v>58</v>
+      </c>
+      <c r="W31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>13</v>
       </c>
@@ -1683,8 +2323,23 @@
       <c r="Q32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="S32" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" t="s">
+        <v>50</v>
+      </c>
+      <c r="U32" t="s">
+        <v>60</v>
+      </c>
+      <c r="V32" t="s">
+        <v>58</v>
+      </c>
+      <c r="W32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
         <v>12</v>
       </c>
@@ -1715,8 +2370,23 @@
       <c r="Q33" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="S33" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" t="s">
+        <v>53</v>
+      </c>
+      <c r="U33" t="s">
+        <v>59</v>
+      </c>
+      <c r="V33" t="s">
+        <v>57</v>
+      </c>
+      <c r="W33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
         <v>8</v>
       </c>
@@ -1747,8 +2417,23 @@
       <c r="Q34" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="S34" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" t="s">
+        <v>62</v>
+      </c>
+      <c r="V34" t="s">
+        <v>58</v>
+      </c>
+      <c r="W34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
         <v>7</v>
       </c>
@@ -1779,8 +2464,23 @@
       <c r="Q35" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="S35" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" t="s">
+        <v>51</v>
+      </c>
+      <c r="U35" t="s">
+        <v>61</v>
+      </c>
+      <c r="V35" t="s">
+        <v>57</v>
+      </c>
+      <c r="W35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
         <v>9</v>
       </c>
@@ -1800,7 +2500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
         <v>10</v>
       </c>
@@ -1820,7 +2520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
         <v>13</v>
       </c>
@@ -1840,7 +2540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
         <v>12</v>
       </c>
@@ -1860,7 +2560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
         <v>8</v>
       </c>
@@ -1880,7 +2580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
         <v>7</v>
       </c>
@@ -1900,7 +2600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
         <v>10</v>
       </c>
@@ -1920,7 +2620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
         <v>9</v>
       </c>
@@ -1940,7 +2640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
         <v>13</v>
       </c>
@@ -1960,7 +2660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
         <v>12</v>
       </c>
@@ -1980,7 +2680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
         <v>8</v>
       </c>
@@ -2000,7 +2700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
         <v>7</v>
       </c>
@@ -2020,7 +2720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:23" x14ac:dyDescent="0.3">
       <c r="F48" t="s">
         <v>10</v>
       </c>
